--- a/Team-Data/2012-13/3-17-2012-13.xlsx
+++ b/Team-Data/2012-13/3-17-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N2" t="n">
         <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q2" t="n">
         <v>0.706</v>
@@ -711,40 +778,40 @@
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
         <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
         <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -765,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -783,7 +850,7 @@
         <v>28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR2" t="n">
         <v>26</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
@@ -983,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>38</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.576</v>
+        <v>0.585</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,10 +1115,10 @@
         <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
         <v>7.8</v>
@@ -1066,19 +1133,19 @@
         <v>17.3</v>
       </c>
       <c r="P4" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0.734</v>
       </c>
       <c r="R4" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U4" t="n">
         <v>20.1</v>
@@ -1096,7 +1163,7 @@
         <v>4.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA4" t="n">
         <v>21.2</v>
@@ -1105,10 +1172,10 @@
         <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1153,22 +1220,22 @@
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
@@ -1183,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-10.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1326,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>20</v>
@@ -1493,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1523,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>14</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
@@ -1675,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
@@ -1690,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1705,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
         <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
-        <v>0.47</v>
+        <v>0.477</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
@@ -1788,7 +1855,7 @@
         <v>20.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
@@ -1797,31 +1864,31 @@
         <v>21</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>14.2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1833,19 +1900,19 @@
         <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1872,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1881,10 +1948,10 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE9" t="n">
         <v>4</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2042,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -2206,13 +2273,13 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2236,7 +2303,7 @@
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2245,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>12</v>
@@ -2260,7 +2327,7 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
@@ -2272,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
@@ -2331,16 +2398,16 @@
         <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.398</v>
+        <v>0.396</v>
       </c>
       <c r="O11" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
         <v>0.791</v>
@@ -2349,16 +2416,16 @@
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
         <v>22.4</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2373,28 +2440,28 @@
         <v>21.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,10 +2503,10 @@
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -2486,58 +2553,58 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="n">
         <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0.537</v>
+        <v>0.545</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J12" t="n">
         <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.463</v>
+        <v>0.465</v>
       </c>
       <c r="L12" t="n">
         <v>10.8</v>
       </c>
       <c r="M12" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="N12" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2552,25 +2619,25 @@
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
         <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.5</v>
+        <v>106.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2579,13 +2646,13 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2600,13 +2667,13 @@
         <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2627,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>15</v>
@@ -2636,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>4.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
@@ -2776,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2791,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,58 +2944,58 @@
         <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
         <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.705</v>
+        <v>0.708</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T14" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.8</v>
       </c>
       <c r="W14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
         <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2955,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -2967,16 +3034,16 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.529</v>
+        <v>0.522</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,19 +3117,19 @@
         <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
@@ -3074,16 +3141,16 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3098,22 +3165,22 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -3128,10 +3195,10 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
         <v>2</v>
@@ -3167,13 +3234,13 @@
         <v>21</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3307,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3358,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,10 +3481,10 @@
         <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
@@ -3426,28 +3493,28 @@
         <v>20.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
         <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R17" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3456,7 +3523,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
         <v>3.2</v>
@@ -3471,13 +3538,13 @@
         <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3501,16 +3568,16 @@
         <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,22 +3586,22 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="n">
         <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3602,22 +3669,22 @@
         <v>0.438</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
       <c r="R18" t="n">
         <v>12.6</v>
@@ -3626,7 +3693,7 @@
         <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U18" t="n">
         <v>22.9</v>
@@ -3644,19 +3711,19 @@
         <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA18" t="n">
         <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3695,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3707,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="n">
         <v>9</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AW18" t="n">
         <v>8</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,10 +3792,10 @@
         <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
         <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.359</v>
+        <v>0.349</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,10 +3845,10 @@
         <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>81.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,13 +3857,13 @@
         <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.299</v>
+        <v>0.298</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P19" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.73</v>
@@ -3805,34 +3872,34 @@
         <v>12.4</v>
       </c>
       <c r="S19" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>8.1</v>
       </c>
       <c r="X19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
         <v>18.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-3.3</v>
@@ -3841,13 +3908,13 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF19" t="n">
         <v>22</v>
       </c>
-      <c r="AF19" t="n">
-        <v>21</v>
-      </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,10 +3923,10 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3880,28 +3947,28 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,7 +4027,7 @@
         <v>36.4</v>
       </c>
       <c r="J20" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.452</v>
@@ -3984,10 +4051,10 @@
         <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T20" t="n">
         <v>41.2</v>
@@ -3996,7 +4063,7 @@
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W20" t="n">
         <v>6.3</v>
@@ -4005,7 +4072,7 @@
         <v>5.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.4</v>
@@ -4014,22 +4081,22 @@
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
         <v>26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>27</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,13 +4105,13 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4059,10 +4126,10 @@
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4074,7 +4141,7 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4083,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
         <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.594</v>
+        <v>0.603</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
         <v>81.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
@@ -4175,31 +4242,31 @@
         <v>41.1</v>
       </c>
       <c r="U21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V21" t="n">
         <v>12.2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
@@ -4232,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
@@ -4244,10 +4311,10 @@
         <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
         <v>22</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
         <v>13</v>
@@ -4274,7 +4341,7 @@
         <v>21</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
         <v>9</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4336,10 +4403,10 @@
         <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.387</v>
+        <v>0.389</v>
       </c>
       <c r="O22" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="P22" t="n">
         <v>27.3</v>
@@ -4369,10 +4436,10 @@
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>21.1</v>
@@ -4384,7 +4451,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4456,7 +4523,7 @@
         <v>7</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="n">
-        <v>0.269</v>
+        <v>0.273</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L23" t="n">
         <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O23" t="n">
         <v>12.4</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
@@ -4542,10 +4609,10 @@
         <v>23.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4554,19 +4621,19 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4614,13 +4681,13 @@
         <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,7 +4696,7 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4766,10 +4833,10 @@
         <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4969,13 +5036,13 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS25" t="n">
         <v>21</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4987,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5002,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5142,10 +5209,10 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5154,13 +5221,13 @@
         <v>7</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5175,7 +5242,7 @@
         <v>22</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>0.343</v>
+        <v>0.348</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J27" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.445</v>
@@ -5243,19 +5310,19 @@
         <v>7.2</v>
       </c>
       <c r="M27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R27" t="n">
         <v>11.6</v>
@@ -5264,16 +5331,16 @@
         <v>28.9</v>
       </c>
       <c r="T27" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
         <v>20.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
         <v>4.2</v>
@@ -5285,16 +5352,16 @@
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,40 +5373,40 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM27" t="n">
         <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
@@ -5348,7 +5415,7 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>0.388</v>
+        <v>0.394</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,49 +5665,49 @@
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M29" t="n">
         <v>20.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="O29" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P29" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S29" t="n">
         <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
         <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
@@ -5649,22 +5716,22 @@
         <v>22.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
@@ -5673,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
@@ -5682,16 +5749,16 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5700,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5712,16 +5779,16 @@
         <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5852,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5882,10 +5949,10 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
@@ -6031,7 +6098,7 @@
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>5</v>
@@ -6046,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
@@ -6064,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6073,7 +6140,7 @@
         <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-17-2012-13</t>
+          <t>2013-03-17</t>
         </is>
       </c>
     </row>
